--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\Projects\fms-automation\ExcelOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\Projects\fms-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4190A1E0-8571-4338-BC0F-7D9A6416F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EC5D32-B92D-42EE-8654-765AEAE43DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Page Load</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sep 16</t>
   </si>
   <si>
     <t>Trucks</t>
@@ -43,6 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -355,72 +362,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="10.625" style="1" collapsed="1"/>
+    <col min="1" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Page Load</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sep 27</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -370,7 +373,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="1" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -380,6 +383,9 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -388,6 +394,9 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -396,6 +405,9 @@
       <c r="B3" t="n">
         <v>9.0</v>
       </c>
+      <c r="C3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -403,6 +415,9 @@
       </c>
       <c r="B4" t="n">
         <v>30.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Page Load</t>
   </si>
@@ -45,10 +45,7 @@
     <t>Login</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sep 26</t>
+    <t xml:space="preserve"> Sep 27</t>
   </si>
 </sst>
 </file>
@@ -368,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -389,12 +386,6 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -404,13 +395,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -423,12 +408,6 @@
       <c r="C3" t="n">
         <v>5.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -438,12 +417,6 @@
         <v>30.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Page Load</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Sep 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 06</t>
+  </si>
+  <si>
+    <t>Deleted Trailers</t>
+  </si>
+  <si>
+    <t>Deleted Trucks</t>
+  </si>
+  <si>
+    <t>Trailer</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -386,6 +398,9 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -397,6 +412,9 @@
       <c r="C2" t="n">
         <v>3.0</v>
       </c>
+      <c r="D2" t="n">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -408,6 +426,9 @@
       <c r="C3" t="n">
         <v>5.0</v>
       </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -418,6 +439,33 @@
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Page Load</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 07</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -401,6 +404,9 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -415,6 +421,9 @@
       <c r="D2" t="n">
         <v>30.0</v>
       </c>
+      <c r="E2" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -429,6 +438,9 @@
       <c r="D3" t="n">
         <v>5.0</v>
       </c>
+      <c r="E3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -443,6 +455,9 @@
       <c r="D4" t="n">
         <v>5.0</v>
       </c>
+      <c r="E4" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -451,6 +466,9 @@
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -459,12 +477,18 @@
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Page Load</t>
   </si>
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -407,6 +407,9 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -424,6 +427,9 @@
       <c r="E2" t="n">
         <v>27.0</v>
       </c>
+      <c r="F2" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -441,6 +447,9 @@
       <c r="E3" t="n">
         <v>5.0</v>
       </c>
+      <c r="F3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -458,6 +467,9 @@
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -469,6 +481,9 @@
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -480,6 +495,9 @@
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -489,6 +507,9 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Page Load</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Sep 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 06</t>
+  </si>
+  <si>
+    <t>Deleted Trailers</t>
+  </si>
+  <si>
+    <t>Deleted Trucks</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 07</t>
   </si>
 </sst>
 </file>
@@ -365,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -386,6 +401,15 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -397,6 +421,15 @@
       <c r="C2" t="n">
         <v>3.0</v>
       </c>
+      <c r="D2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -408,6 +441,15 @@
       <c r="C3" t="n">
         <v>5.0</v>
       </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -418,6 +460,57 @@
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>Page Load</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Oct 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 19</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -410,6 +413,54 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -430,6 +481,45 @@
       <c r="F2" t="n">
         <v>15.0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -450,6 +540,45 @@
       <c r="F3" t="n">
         <v>5.0</v>
       </c>
+      <c r="G3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -470,6 +599,54 @@
       <c r="F4" t="n">
         <v>2.0</v>
       </c>
+      <c r="G4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -484,6 +661,27 @@
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -498,6 +696,30 @@
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -510,6 +732,42 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
   <si>
     <t>Page Load</t>
   </si>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -461,6 +461,9 @@
       <c r="V1" t="s">
         <v>12</v>
       </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -520,6 +523,9 @@
       <c r="V2" t="n">
         <v>0.0</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -579,6 +585,9 @@
       <c r="V3" t="n">
         <v>9.0</v>
       </c>
+      <c r="W3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -647,6 +656,9 @@
       <c r="V4" t="n">
         <v>28.0</v>
       </c>
+      <c r="W4" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -682,6 +694,9 @@
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -720,6 +735,9 @@
       <c r="V6" t="n">
         <v>0.0</v>
       </c>
+      <c r="W6" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -768,6 +786,9 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>Page Load</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Oct 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 21</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -464,6 +467,9 @@
       <c r="W1" t="s">
         <v>12</v>
       </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -526,6 +532,9 @@
       <c r="W2" t="n">
         <v>0.0</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -588,6 +597,9 @@
       <c r="W3" t="n">
         <v>5.0</v>
       </c>
+      <c r="X3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -659,6 +671,9 @@
       <c r="W4" t="n">
         <v>5.0</v>
       </c>
+      <c r="X4" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -697,6 +712,9 @@
       <c r="W5" t="n">
         <v>0.0</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -738,6 +756,9 @@
       <c r="W6" t="n">
         <v>19.0</v>
       </c>
+      <c r="X6" t="n">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -789,6 +810,9 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="20">
   <si>
     <t>Page Load</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Oct 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 07</t>
   </si>
 </sst>
 </file>
@@ -383,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:BS7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -461,6 +482,153 @@
       <c r="V1" t="s">
         <v>12</v>
       </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -520,6 +688,78 @@
       <c r="V2" t="n">
         <v>0.0</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -579,6 +819,144 @@
       <c r="V3" t="n">
         <v>9.0</v>
       </c>
+      <c r="W3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -647,6 +1025,153 @@
       <c r="V4" t="n">
         <v>28.0</v>
       </c>
+      <c r="W4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -682,6 +1207,69 @@
       <c r="V5" t="n">
         <v>0.0</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -720,6 +1308,66 @@
       <c r="V6" t="n">
         <v>0.0</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -768,6 +1416,72 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/ExcelOutput/loadingtime.xlsx
+++ b/ExcelOutput/loadingtime.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="23">
   <si>
     <t>Page Load</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Oct 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 08</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 09</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 16</t>
   </si>
 </sst>
 </file>
@@ -386,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:EW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -470,6 +497,393 @@
       <c r="X1" t="s">
         <v>13</v>
       </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -535,6 +949,9 @@
       <c r="X2" t="n">
         <v>0.0</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -600,6 +1017,282 @@
       <c r="X3" t="n">
         <v>5.0</v>
       </c>
+      <c r="Y3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -674,6 +1367,393 @@
       <c r="X4" t="n">
         <v>5.0</v>
       </c>
+      <c r="Y4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -715,6 +1795,9 @@
       <c r="X5" t="n">
         <v>0.0</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -759,6 +1842,9 @@
       <c r="X6" t="n">
         <v>22.0</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -814,6 +1900,49 @@
       </c>
       <c r="X7" t="n">
         <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.66792965E9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.66797646E9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.667978341E9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.6679819E9</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.667987429E9</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.66798785E9</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.667990462E9</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.667990682E9</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.667991526E9</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.667991863E9</v>
       </c>
     </row>
   </sheetData>
